--- a/MHWs.xlsx
+++ b/MHWs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zj\MH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBD1EB5-82FB-4B55-A887-BC87958B1B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EFA76C-95DD-4004-9B9D-61B3B718ED06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="2130" windowWidth="18795" windowHeight="13410" xr2:uid="{7B500543-6AFD-4DB1-AC59-61752B7B02DC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7B500543-6AFD-4DB1-AC59-61752B7B02DC}"/>
   </bookViews>
   <sheets>
     <sheet name="大小金" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="203">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1202,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE9F9DF-84FA-4F2B-BC86-5E04CBB4F334}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1558,8 +1558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C87C20E-0316-423D-B05D-27FF13234331}">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F49" sqref="E49:F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2209,6 +2209,9 @@
       <c r="A57" t="s">
         <v>105</v>
       </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
       <c r="D57" t="s">
         <v>16</v>
       </c>
@@ -2283,7 +2286,7 @@
         <v>16</v>
       </c>
       <c r="E62" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
